--- a/TspuWebPortal/Development/unsafe_uploads/DC2_Rack_1.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC2_Rack_1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Rack 13" sheetId="3" r:id="rId1"/>
+    <sheet name="Rack 1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="318">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Наименование оборудования, комплекта</t>
   </si>
   <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
-  </si>
-  <si>
     <t>Инвентарный номер</t>
   </si>
   <si>
@@ -89,843 +83,903 @@
     <t>eno2</t>
   </si>
   <si>
-    <t>Коммутатор агрегации L3 уровня, 48 портов 10G (SFP+), 4 порта 40G (QSFP+)</t>
-  </si>
-  <si>
-    <t>MES5448</t>
-  </si>
-  <si>
     <t>При извлечении из основного оборудования</t>
   </si>
   <si>
-    <t>FT-SFP+SR-0.3-D</t>
-  </si>
-  <si>
-    <t>1/0/47</t>
-  </si>
-  <si>
-    <t>1/0/48</t>
-  </si>
-  <si>
-    <t>1/0/51</t>
-  </si>
-  <si>
-    <t>1/0/52</t>
-  </si>
-  <si>
-    <t>Модуль питания PM350-220/12, 220V AC, 350W</t>
+    <t>ensXf1</t>
+  </si>
+  <si>
+    <t>1/0/1</t>
+  </si>
+  <si>
+    <t>1/0/2</t>
+  </si>
+  <si>
+    <t>1/0/3</t>
+  </si>
+  <si>
+    <t>1/0/4</t>
+  </si>
+  <si>
+    <t>1/0/5</t>
+  </si>
+  <si>
+    <t>1/0/6</t>
+  </si>
+  <si>
+    <t>1/0/7</t>
+  </si>
+  <si>
+    <t>1/0/8</t>
+  </si>
+  <si>
+    <t>1/0/15</t>
+  </si>
+  <si>
+    <t>1/0/16</t>
+  </si>
+  <si>
+    <t>1/0/17</t>
+  </si>
+  <si>
+    <t>1/0/18</t>
+  </si>
+  <si>
+    <t>1/0/19</t>
+  </si>
+  <si>
+    <t>1/0/20</t>
+  </si>
+  <si>
+    <t>1/0/21</t>
+  </si>
+  <si>
+    <t>1/0/22</t>
+  </si>
+  <si>
+    <t>15/02</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ЦОД-2</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>2102312CUWN0L6000159</t>
+  </si>
+  <si>
+    <t>Сервер Тип S6 для СУ (Backup) Huawei 5288 V5 (36*3.5inch HDD Chassis, With 2*GE and 2*10GE SFP+) 2 x Xeon Gold 6230, 8 x 16GB DIMM = 128GB RAM, 2 x 480GB M.2 SSD SATA 6Gb/s, 36 x 14TB 3.5" 7200RPM HDD, 1 x additional Dual Port SFP+ PCIe Network Adapter) 4-port 10Gbe Standard LP with SFP+)</t>
+  </si>
+  <si>
+    <t>5288 V5</t>
+  </si>
+  <si>
+    <t>00-34173</t>
+  </si>
+  <si>
+    <t>FT4J20B577</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>FT202006222589</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+</t>
+  </si>
+  <si>
+    <t>Учтено в коммутационном оборудовании</t>
+  </si>
+  <si>
+    <t>FT4J20B576</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>FT202006223126</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>51060195421A200003</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Модуль памяти DDR4 RDIMM Memory,64GB,2933MT/s,2Rank(4G*4bit)</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>51060195421A20000E</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>51060195421A200002</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>51060195421A20000K</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>51060195421A20000L</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>51060195421A200014</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>2102312ALSFSL6000028</t>
+  </si>
+  <si>
+    <t>Сервер Тип S4 для СУ (Slow database) Huawei 2288H V5 (16*3.5inch HDD Chassis, With 2*GE and 2*10GE SFP+) 2 x Xeon Gold 6230, 8 x 16GB DIMM = 128GB RAM, 2 x 480GB M.2 SSD SATA 6Gb/s, 4 x 960GB 2.5" SATA SSD, 12 x 2TB 3.5" SATA HDD, 1 x additional Dual Port SFP+ PCIe Network Adapter)</t>
+  </si>
+  <si>
+    <t>2288H V5</t>
+  </si>
+  <si>
+    <t>00-34188</t>
+  </si>
+  <si>
+    <t>FT4J20B565</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>FTS0706031426</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>FT4J20B567</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>FT202006223103</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2102312ALSFSL6000020</t>
+  </si>
+  <si>
+    <t>00-34300</t>
+  </si>
+  <si>
+    <t>FT4J20B562</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>FTS0706031904</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>FT4J20B566</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>FT202006223033</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2102311XBSFSL6000033</t>
+  </si>
+  <si>
+    <t>Сервер Тип S3 для СУ (Fast database) Huawei 2288H V5 (24*2.5inch HDD Chassis, With 2*GE and 2*10GE SFP+) 2 x Xeon Gold 6248, 8 x 32GB DIMM = 256GB RAM, 2 x 480GB M.2 SSD SATA 6Gb/s, 16 x 960GB 2.5" SATA SSD, 1 x additional dual port SFP+ PCIe Network Adapter)</t>
+  </si>
+  <si>
+    <t>00-34473</t>
+  </si>
+  <si>
+    <t>FT4J20B564</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>FTS0706031622</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>FT4J20B573</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>FT202007101037</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>2102311XBSFSL6000037</t>
+  </si>
+  <si>
+    <t>00-34199</t>
+  </si>
+  <si>
+    <t>FT4J20B572</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>FTS070602C064</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>FT4J20B571</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>FT202007101014</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>2102311XBSFSL6000044</t>
+  </si>
+  <si>
+    <t>00-34200</t>
+  </si>
+  <si>
+    <t>Замена из ЗиП по неисправности. 
+был 2102311XBSFSL6000038
+стал 2102311XBSFSL6000044</t>
+  </si>
+  <si>
+    <t>FT4J20A701</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>FTS070602B962</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>FT4J20B570</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>FT202007101092</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>A287475X9402112</t>
+  </si>
+  <si>
+    <t>Сервер T1.1 xdb146 Supermicro SSG-6029P-E1CR12L</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>FT4J20B637</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>FiberTrade FT-SFP+SR-0,3-D</t>
+  </si>
+  <si>
+    <t>enp175s0f0</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>FTS070602C688</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>enp175s0f1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>FT4J20A929</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Intel Corp FT-SFP+SR-0,3-D</t>
+  </si>
+  <si>
+    <t>enp216s0f0</t>
+  </si>
+  <si>
+    <t>FT202006223293</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>enp216s0f1</t>
+  </si>
+  <si>
+    <t>2102311XCXP0L6000260</t>
+  </si>
+  <si>
+    <t>Сервер PostrgeSQL Huawei 1288H V5 (4*3.5 inch HDD Chassis, With 2*GE and 2*10GE SFP+), Intel Xeon Silver 4214 CPU (2.2GHz/16.5Mb/12cores), 4*DDR4 DIMM 32Gb PC4-21300, 2933MHz, ECC Reg, 2x1600GB SSD 2.5" SAS 12Gb/s, 4-port 10Gbe Standard LP with SFP+, Intel X710, SR150-M (Avago3408) SAS/SATA RAID Card, RAID 0, 1, 10)</t>
+  </si>
+  <si>
+    <t>1288H V5</t>
+  </si>
+  <si>
+    <t>00-34206</t>
+  </si>
+  <si>
+    <t>FT4J20A704</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>FTS070602C542</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>FT4J20A703</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>FT202007101086</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>2102311XDBP0L6000074</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Сервер Тип S2 для СУ (Compute node) Huawei 1288H V5 (8*2.5inch HDD Chassis, With 2*GE and 2*10GE SFP+) 2 x Xeon Gold 6248, 8 x 32GB DIMM = 256GB RAM, 2 x 480GB M.2 SSD SATA 6Gb/s, 2 x 960GB 2.5" SATA SSD, 1 x additional dual port SFP+ PCIe Network Adapter)))</t>
+  </si>
+  <si>
+    <t>00-34208</t>
+  </si>
+  <si>
+    <t>FT4J20B568</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>FTS070602C276</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>FT4J20A705</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>FT202007101013</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>E263530X9601428</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Сервер T2.1 kube156 Supermicro SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>FT4J20A944</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>FT17BA00389</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>E263530X9601424</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Сервер T3.1 kube157 Supermicro SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>FT4J20A922</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>FT4J20B591</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>FTS070602B460</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>FT202007101009</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>0012104456</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервер 2 ПАК СКДПУ </t>
+  </si>
+  <si>
+    <t>Kraftway ES161</t>
+  </si>
+  <si>
+    <t>00-34213</t>
+  </si>
+  <si>
+    <t>KAS0CG00020P</t>
+  </si>
+  <si>
+    <t>FT4J20A697</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>FT4J20A926</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>A658DC230CRE68793009</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Net Card Intel Original E10G42BTDABLK (E10G42BTDABLK 927249</t>
+  </si>
+  <si>
+    <t>SC202003301170(A658DC230CRE68793009)</t>
+  </si>
+  <si>
+    <t>A65A90230CRE68793009</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>SC202003300750(A65A90230CRE68793009)</t>
+  </si>
+  <si>
+    <t>ES7A000208</t>
+  </si>
+  <si>
+    <t>Коммутатор сегмента управления 32x10GBASE-R(SFP+)</t>
+  </si>
+  <si>
+    <t>MES5332A</t>
+  </si>
+  <si>
+    <t>DC2-R01-MGMT-E5332-1</t>
+  </si>
+  <si>
+    <t>00-34317</t>
+  </si>
+  <si>
+    <t>выгрузка конфигурационных данных</t>
+  </si>
+  <si>
+    <t>PM12069616</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>Модуль питания PM160-220/12, 220V AC, 160W</t>
+  </si>
+  <si>
+    <t>PM12069443</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-2</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-3</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>13.11</t>
+  </si>
+  <si>
+    <t>1/0/9</t>
+  </si>
+  <si>
+    <t>FT2010150018</t>
+  </si>
+  <si>
+    <t>13.12</t>
+  </si>
+  <si>
+    <t>Трансивер SFP-1000Base-T</t>
+  </si>
+  <si>
+    <t>FT-SFP-Copper-10</t>
+  </si>
+  <si>
+    <t>1/0/10</t>
+  </si>
+  <si>
+    <t>FT2010150023</t>
+  </si>
+  <si>
+    <t>13.13</t>
+  </si>
+  <si>
+    <t>1/0/11</t>
+  </si>
+  <si>
+    <t>13.14</t>
+  </si>
+  <si>
+    <t>1/0/12</t>
+  </si>
+  <si>
+    <t>FT092006000012</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>Трансивер 10GBASE-LR</t>
+  </si>
+  <si>
+    <t>FT-SFP+LR-10-D</t>
+  </si>
+  <si>
+    <t>1/0/13</t>
+  </si>
+  <si>
+    <t>FT092006000022</t>
+  </si>
+  <si>
+    <t>13.16</t>
+  </si>
+  <si>
+    <t>1/0/14</t>
+  </si>
+  <si>
+    <t>FT202007101080</t>
+  </si>
+  <si>
+    <t>13.17</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-5</t>
+  </si>
+  <si>
+    <t>FT202007101012</t>
+  </si>
+  <si>
+    <t>13.18</t>
+  </si>
+  <si>
+    <t>FT202007101078</t>
+  </si>
+  <si>
+    <t>13.19</t>
+  </si>
+  <si>
+    <t>FT202007101016</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>FT202007100997</t>
+  </si>
+  <si>
+    <t>13.21</t>
+  </si>
+  <si>
+    <t>FT202007100998</t>
+  </si>
+  <si>
+    <t>13.22</t>
+  </si>
+  <si>
+    <t>FT202007101051</t>
+  </si>
+  <si>
+    <t>13.23</t>
+  </si>
+  <si>
+    <t>FT092005002058</t>
+  </si>
+  <si>
+    <t>13.24</t>
+  </si>
+  <si>
+    <t>FT202007101000</t>
+  </si>
+  <si>
+    <t>13.25</t>
+  </si>
+  <si>
+    <t>1/0/23</t>
+  </si>
+  <si>
+    <t>FT202006223132</t>
+  </si>
+  <si>
+    <t>13.26</t>
+  </si>
+  <si>
+    <t>1/0/24</t>
+  </si>
+  <si>
+    <t>FT4J20B517</t>
+  </si>
+  <si>
+    <t>13.27</t>
+  </si>
+  <si>
+    <t>FT-SFP+SR-0,3-D</t>
+  </si>
+  <si>
+    <t>1/0/25</t>
+  </si>
+  <si>
+    <t>FT2010150020</t>
+  </si>
+  <si>
+    <t>13.28</t>
+  </si>
+  <si>
+    <t>1/0/26</t>
+  </si>
+  <si>
+    <t>FT2010150022</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
+    <t>1/0/27</t>
+  </si>
+  <si>
+    <t>FT2010150021</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>1/0/28</t>
+  </si>
+  <si>
+    <t>FT4J20A935</t>
+  </si>
+  <si>
+    <t>13.31</t>
+  </si>
+  <si>
+    <t>1/0/29</t>
+  </si>
+  <si>
+    <t>FT4J20A936</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>1/0/30</t>
+  </si>
+  <si>
+    <t>FT202006222954</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>1/0/31</t>
+  </si>
+  <si>
+    <t>FT202006223057</t>
+  </si>
+  <si>
+    <t>13.34</t>
+  </si>
+  <si>
+    <t>1/0/32</t>
+  </si>
+  <si>
+    <t>Сервер S1 / СКДПУ (Бастион)-2</t>
+  </si>
+  <si>
+    <t>Сервер T3.1 / kube157-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер T2.1 / kube156-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube151-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер PG / pg111-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер T1.1 / xdb141-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb121-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb123-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb125-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb131-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb132-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S6 / bk101-f2.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>юниты 2-5</t>
+  </si>
+  <si>
+    <t>юниты 7-8</t>
+  </si>
+  <si>
+    <t>юниты 10-11</t>
+  </si>
+  <si>
+    <t>юниты 13-14</t>
+  </si>
+  <si>
+    <t>юниты 16-17</t>
+  </si>
+  <si>
+    <t>юниты 19-20</t>
+  </si>
+  <si>
+    <t>юниты 22-23</t>
+  </si>
+  <si>
+    <t>юнит 25</t>
+  </si>
+  <si>
+    <t>юнит 27</t>
+  </si>
+  <si>
+    <t>юнит 29</t>
+  </si>
+  <si>
+    <t>юнит 31</t>
   </si>
   <si>
     <t>юнит 33</t>
   </si>
   <si>
+    <t>юнит 35</t>
+  </si>
+  <si>
     <t>юнит 38</t>
-  </si>
-  <si>
-    <t>ensXf1</t>
-  </si>
-  <si>
-    <t>R8220H</t>
-  </si>
-  <si>
-    <t>Выгрузка конфигурационных данных</t>
-  </si>
-  <si>
-    <t>Сервер Тип S4 для СУ (Slow database), PC Server,2*6230,8*16GB,12*3.5'' 2TB-SATA HDD+4*3.5'' 960GB SATA SSD+2*480GB M.2,2*GE+2*10GE,2*10GE,1*3516 Riad+SuperCap,Chinese and English doc,2*900W, DCOA S4 R8220H</t>
-  </si>
-  <si>
-    <t>Сервер Тип S3 Сервер централизованной обработки списков (СЦОС), PC Server,2*6248,8*32GB,16*2.5'' 960GB-SAS SSD+2*480GB M.2,2*GE+2*10GE,2*10GE,1*3508 Raid+SuperCap,Chinese and English doc,2*550W, DCOA S3 R8220H</t>
-  </si>
-  <si>
-    <t>Сервер Тип S3 для СУ ((Fast database), PC Server,2*6248,8*32GB,16*2.5'' 960GB-SAS SSD+2*480GB M.2,2*GE+2*10GE,2*10GE,1*3508 Raid+SuperCap,Chinese and English doc,2*550W, DCOA S3 R8220H</t>
-  </si>
-  <si>
-    <t>Сервер Тип S2 для СУ (Compute node), PC Server,2*6248,8*32GB,2*2.5'' 960GB SSD+2*480GB M.2,2*GE+2*10GE,SP310 2*10GE,1*3408 raid,Chinese and English doc,2*550W, DCOA Computer node R8120H</t>
-  </si>
-  <si>
-    <t>R8120H</t>
-  </si>
-  <si>
-    <t>ens1f0</t>
-  </si>
-  <si>
-    <t>ens1f1</t>
-  </si>
-  <si>
-    <t>Сервер Тип S1 для СУ (Auxiliary node), PC Server,2*6230,8*16GB,2*2.5'' 960GB SSD+2*480GB M.2,2*GE+2*10GE,SP310 2*10GE,1*3408 raid,Chinese and English doc,2*550W, DCOA S1 R8120H с предустановленным ПО Windows Svr Std 2019 64Bit Russian</t>
-  </si>
-  <si>
-    <t>Модуль NVIDIA,Tesla T4,16GB Memory/ 320GB/s Bandwidth/ PCIE 3.0 X16-10DE-1EB8-1,70W/ Single Slot/PassiveCoolling</t>
-  </si>
-  <si>
-    <t>АПКШ "Континент" 3.9. L2VPN Крипто Коммутатор (КК), платформа IPC3000FC</t>
-  </si>
-  <si>
-    <t>IPC3000FC</t>
-  </si>
-  <si>
-    <t>ПАК "Соболь"</t>
-  </si>
-  <si>
-    <t>Модуль трансивера SFP, 1G для IPC3000F, IPC100</t>
-  </si>
-  <si>
-    <t>Модуль трансивера 10Gb/s SFP+ Optic для платформы IPC-3000F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE8850-EI-F-B0A  Коммутатор Huawei CE8850-32CQ-EI Switch (32-Port 100GE QSFP28,2-Port 10GE SFP+,2*AC Power Module, 2FAN, Box Port-side Exhaust)   </t>
-  </si>
-  <si>
-    <t>CE8850</t>
-  </si>
-  <si>
-    <t>Трансивер Fibertrade FT-QSFP+-SR4-M</t>
-  </si>
-  <si>
-    <t>FT-QSFP+-SR4-M</t>
-  </si>
-  <si>
-    <t>100GE1/0/1</t>
-  </si>
-  <si>
-    <t>100GE1/0/2</t>
-  </si>
-  <si>
-    <t>100GE1/0/3</t>
-  </si>
-  <si>
-    <t>100GE1/0/4</t>
-  </si>
-  <si>
-    <t>Трансивер Fibertrade FT-QSFP+-LR4-PSM</t>
-  </si>
-  <si>
-    <t>FT-QSFP+-LR4-PSM</t>
-  </si>
-  <si>
-    <t>100GE1/0/10</t>
-  </si>
-  <si>
-    <t>Трансивер 40GBASE- LR4</t>
-  </si>
-  <si>
-    <t>FT-QSFP+-LR4</t>
-  </si>
-  <si>
-    <t>100GE1/0/30</t>
-  </si>
-  <si>
-    <t>100GE1/0/27</t>
-  </si>
-  <si>
-    <t>FT-QSFP28 ER4</t>
-  </si>
-  <si>
-    <t>100GE1/0/28</t>
-  </si>
-  <si>
-    <t>Трансивер QSFP-100GBase-LR4</t>
-  </si>
-  <si>
-    <t>FT-QSFP28 LR4</t>
-  </si>
-  <si>
-    <t>100GE1/0/29</t>
-  </si>
-  <si>
-    <t>100GE1/0/31</t>
-  </si>
-  <si>
-    <t>100GE1/0/32</t>
-  </si>
-  <si>
-    <t>1/0/1</t>
-  </si>
-  <si>
-    <t>1/0/2</t>
-  </si>
-  <si>
-    <t>1/0/3</t>
-  </si>
-  <si>
-    <t>1/0/4</t>
-  </si>
-  <si>
-    <t>1/0/5</t>
-  </si>
-  <si>
-    <t>1/0/6</t>
-  </si>
-  <si>
-    <t>1/0/7</t>
-  </si>
-  <si>
-    <t>1/0/8</t>
-  </si>
-  <si>
-    <t>1/0/15</t>
-  </si>
-  <si>
-    <t>1/0/16</t>
-  </si>
-  <si>
-    <t>1/0/17</t>
-  </si>
-  <si>
-    <t>1/0/18</t>
-  </si>
-  <si>
-    <t>1/0/19</t>
-  </si>
-  <si>
-    <t>1/0/20</t>
-  </si>
-  <si>
-    <t>1/0/21</t>
-  </si>
-  <si>
-    <t>1/0/22</t>
-  </si>
-  <si>
-    <t>Трансивер 40GBase-LR4</t>
-  </si>
-  <si>
-    <t>юниты 2-3</t>
-  </si>
-  <si>
-    <t>юниты 5-6</t>
-  </si>
-  <si>
-    <t>юниты 8-9</t>
-  </si>
-  <si>
-    <t>юниты 11-12</t>
-  </si>
-  <si>
-    <t>юниты 14-15</t>
-  </si>
-  <si>
-    <t>юнит 17</t>
-  </si>
-  <si>
-    <t>юнит 19</t>
-  </si>
-  <si>
-    <t>юнит 21</t>
-  </si>
-  <si>
-    <t>юнит 34</t>
-  </si>
-  <si>
-    <t>юнит 36</t>
-  </si>
-  <si>
-    <t>2106112521FSM8000007</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>FT17BA00727</t>
-  </si>
-  <si>
-    <t>146.1</t>
-  </si>
-  <si>
-    <t>FT17BA00062</t>
-  </si>
-  <si>
-    <t>146.2</t>
-  </si>
-  <si>
-    <t>FT17BA00730</t>
-  </si>
-  <si>
-    <t>146.3</t>
-  </si>
-  <si>
-    <t>FT17BA00063</t>
-  </si>
-  <si>
-    <t>146.4</t>
-  </si>
-  <si>
-    <t>2106112521FSM8000003</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>FT17BA00728</t>
-  </si>
-  <si>
-    <t>147.1</t>
-  </si>
-  <si>
-    <t>FT17BA00061</t>
-  </si>
-  <si>
-    <t>147.2</t>
-  </si>
-  <si>
-    <t>FT17BA00729</t>
-  </si>
-  <si>
-    <t>147.3</t>
-  </si>
-  <si>
-    <t>FT17BA00410</t>
-  </si>
-  <si>
-    <t>147.4</t>
-  </si>
-  <si>
-    <t>2106112523FSM8000008</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>FT17BA00725</t>
-  </si>
-  <si>
-    <t>148.1</t>
-  </si>
-  <si>
-    <t>FT17BA00408</t>
-  </si>
-  <si>
-    <t>148.2</t>
-  </si>
-  <si>
-    <t>FT17BA00726</t>
-  </si>
-  <si>
-    <t>148.3</t>
-  </si>
-  <si>
-    <t>FT17BA00409</t>
-  </si>
-  <si>
-    <t>148.4</t>
-  </si>
-  <si>
-    <t>2106112523FSM8000009</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>FT17BA00537</t>
-  </si>
-  <si>
-    <t>149.1</t>
-  </si>
-  <si>
-    <t>FT17BA00407</t>
-  </si>
-  <si>
-    <t>149.2</t>
-  </si>
-  <si>
-    <t>FT17BA00538</t>
-  </si>
-  <si>
-    <t>149.3</t>
-  </si>
-  <si>
-    <t>FT17BA00406</t>
-  </si>
-  <si>
-    <t>149.4</t>
-  </si>
-  <si>
-    <t>2106112523FSM8000002</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>FT17BA00540</t>
-  </si>
-  <si>
-    <t>150.1</t>
-  </si>
-  <si>
-    <t>FT17BA01036</t>
-  </si>
-  <si>
-    <t>150.2</t>
-  </si>
-  <si>
-    <t>FT17BA00539</t>
-  </si>
-  <si>
-    <t>150.3</t>
-  </si>
-  <si>
-    <t>FT17BA01035</t>
-  </si>
-  <si>
-    <t>150.4</t>
-  </si>
-  <si>
-    <t>2106112524FSM8000003</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>FT17BA00535</t>
-  </si>
-  <si>
-    <t>151.1</t>
-  </si>
-  <si>
-    <t>FT17BA01033</t>
-  </si>
-  <si>
-    <t>151.2</t>
-  </si>
-  <si>
-    <t>FT17BA00536</t>
-  </si>
-  <si>
-    <t>151.3</t>
-  </si>
-  <si>
-    <t>FT17BA01034</t>
-  </si>
-  <si>
-    <t>151.4</t>
-  </si>
-  <si>
-    <t>2106112524FSM8000004</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>FT17BA00534</t>
-  </si>
-  <si>
-    <t>152.1</t>
-  </si>
-  <si>
-    <t>FT17BA00721</t>
-  </si>
-  <si>
-    <t>152.2</t>
-  </si>
-  <si>
-    <t>FT17BA00533</t>
-  </si>
-  <si>
-    <t>152.3</t>
-  </si>
-  <si>
-    <t>FT17BA00722</t>
-  </si>
-  <si>
-    <t>152.4</t>
-  </si>
-  <si>
-    <t>2106112525FSM8000007</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>FT17BA00532</t>
-  </si>
-  <si>
-    <t>153.1</t>
-  </si>
-  <si>
-    <t>FT17BA00723</t>
-  </si>
-  <si>
-    <t>153.2</t>
-  </si>
-  <si>
-    <t>FT17BA00531</t>
-  </si>
-  <si>
-    <t>153.3</t>
-  </si>
-  <si>
-    <t>FT17BA00724</t>
-  </si>
-  <si>
-    <t>153.4</t>
-  </si>
-  <si>
-    <t>51060197721A190007</t>
-  </si>
-  <si>
-    <t>153.5</t>
-  </si>
-  <si>
-    <t>822ZGBGD</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>0000016B885D</t>
-  </si>
-  <si>
-    <t>154.1</t>
-  </si>
-  <si>
-    <t>SC4C204865</t>
-  </si>
-  <si>
-    <t>154.2</t>
-  </si>
-  <si>
-    <t>через консоль</t>
-  </si>
-  <si>
-    <t>SC4J210255</t>
-  </si>
-  <si>
-    <t>154.3</t>
-  </si>
-  <si>
-    <t>SC4J210268</t>
-  </si>
-  <si>
-    <t>154.4</t>
-  </si>
-  <si>
-    <t>SC11BA00765</t>
-  </si>
-  <si>
-    <t>154.5</t>
-  </si>
-  <si>
-    <t>SC11BA00749</t>
-  </si>
-  <si>
-    <t>154.6</t>
-  </si>
-  <si>
-    <t>SC11BA00895</t>
-  </si>
-  <si>
-    <t>154.7</t>
-  </si>
-  <si>
-    <t>SC11BA00766</t>
-  </si>
-  <si>
-    <t>154.8</t>
-  </si>
-  <si>
-    <t>GJA9G28E</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>0000016A8646</t>
-  </si>
-  <si>
-    <t>155.1</t>
-  </si>
-  <si>
-    <t>SC4J210301</t>
-  </si>
-  <si>
-    <t>155.2</t>
-  </si>
-  <si>
-    <t>SC4J210239</t>
-  </si>
-  <si>
-    <t>155.3</t>
-  </si>
-  <si>
-    <t>SC4J210269</t>
-  </si>
-  <si>
-    <t>155.4</t>
-  </si>
-  <si>
-    <t>SC11BA00885</t>
-  </si>
-  <si>
-    <t>155.5</t>
-  </si>
-  <si>
-    <t>SC11BA00819</t>
-  </si>
-  <si>
-    <t>155.6</t>
-  </si>
-  <si>
-    <t>SC11BA00736</t>
-  </si>
-  <si>
-    <t>155.7</t>
-  </si>
-  <si>
-    <t>SC11BA00775</t>
-  </si>
-  <si>
-    <t>155.8</t>
-  </si>
-  <si>
-    <t>2102350SBC10K9000011</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>DC1-R13-DCI-CE8850-1</t>
-  </si>
-  <si>
-    <t>FT2112280297</t>
-  </si>
-  <si>
-    <t>156.1</t>
-  </si>
-  <si>
-    <t>замена по неисправности вендором:
-был FT2101210141
-стал FT2112280297</t>
-  </si>
-  <si>
-    <t>FT2112280298</t>
-  </si>
-  <si>
-    <t>156.2</t>
-  </si>
-  <si>
-    <t>замена по неисправности вендором:
-был FT2101210140
-стал FT2112280298</t>
-  </si>
-  <si>
-    <t>FT2112280299</t>
-  </si>
-  <si>
-    <t>156.3</t>
-  </si>
-  <si>
-    <t>замена по неисправности вендором:
-был FT2101210138
-стал FT2112280299</t>
-  </si>
-  <si>
-    <t>FT2112280300</t>
-  </si>
-  <si>
-    <t>156.4</t>
-  </si>
-  <si>
-    <t>замена по неисправности вендором:
-был FT2101210139
-стал FT2112280300</t>
-  </si>
-  <si>
-    <t>FT2107130005</t>
-  </si>
-  <si>
-    <t>156.5</t>
-  </si>
-  <si>
-    <t>FT17AL01023</t>
-  </si>
-  <si>
-    <t>156.6</t>
-  </si>
-  <si>
-    <t>FT2101210147</t>
-  </si>
-  <si>
-    <t>156.7</t>
-  </si>
-  <si>
-    <t>FT62107140004</t>
-  </si>
-  <si>
-    <t>156.8</t>
-  </si>
-  <si>
-    <t>FT-QSFP28-ER4 Трансивер FT QSFP28 103.1 Гбит/с 25/32км</t>
-  </si>
-  <si>
-    <t>FT2107140067</t>
-  </si>
-  <si>
-    <t>156.9</t>
-  </si>
-  <si>
-    <t>FT2107140096</t>
-  </si>
-  <si>
-    <t>156.10</t>
-  </si>
-  <si>
-    <t>FT2107140065</t>
-  </si>
-  <si>
-    <t>156.11</t>
-  </si>
-  <si>
-    <t>ESC9000062</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>DC1-R13-MGMT-E5448-1</t>
-  </si>
-  <si>
-    <t>РМ 26001769</t>
-  </si>
-  <si>
-    <t>157.1</t>
-  </si>
-  <si>
-    <t>РМ 26001768</t>
-  </si>
-  <si>
-    <t>157.2</t>
-  </si>
-  <si>
-    <t>FT17BA00364</t>
-  </si>
-  <si>
-    <t>157.3</t>
-  </si>
-  <si>
-    <t>FT17BA00367</t>
-  </si>
-  <si>
-    <t>157.4</t>
-  </si>
-  <si>
-    <t>FT17BA00369</t>
-  </si>
-  <si>
-    <t>157.5</t>
-  </si>
-  <si>
-    <t>FT17BA00080</t>
-  </si>
-  <si>
-    <t>157.6</t>
-  </si>
-  <si>
-    <t>FT17BA00365</t>
-  </si>
-  <si>
-    <t>157.7</t>
-  </si>
-  <si>
-    <t>FT17BA00366</t>
-  </si>
-  <si>
-    <t>157.8</t>
-  </si>
-  <si>
-    <t>FT17BA00368</t>
-  </si>
-  <si>
-    <t>157.9</t>
-  </si>
-  <si>
-    <t>FT17BA00370</t>
-  </si>
-  <si>
-    <t>157.10</t>
-  </si>
-  <si>
-    <t>FT17BA00720</t>
-  </si>
-  <si>
-    <t>157.11</t>
-  </si>
-  <si>
-    <t>FT17BA00719</t>
-  </si>
-  <si>
-    <t>157.12</t>
-  </si>
-  <si>
-    <t>FT17BA00718</t>
-  </si>
-  <si>
-    <t>157.13</t>
-  </si>
-  <si>
-    <t>FT17BA00717</t>
-  </si>
-  <si>
-    <t>157.14</t>
-  </si>
-  <si>
-    <t>FT17BA00716</t>
-  </si>
-  <si>
-    <t>157.15</t>
-  </si>
-  <si>
-    <t>FT17BA00715</t>
-  </si>
-  <si>
-    <t>157.16</t>
-  </si>
-  <si>
-    <t>FT17BA00714</t>
-  </si>
-  <si>
-    <t>157.17</t>
-  </si>
-  <si>
-    <t>FT17BA00713</t>
-  </si>
-  <si>
-    <t>157.18</t>
-  </si>
-  <si>
-    <t>FT17BA01076</t>
-  </si>
-  <si>
-    <t>157.19</t>
-  </si>
-  <si>
-    <t>FT17BA01075</t>
-  </si>
-  <si>
-    <t>157.20</t>
-  </si>
-  <si>
-    <t>FTQ0206000016</t>
-  </si>
-  <si>
-    <t>157.21</t>
-  </si>
-  <si>
-    <t>FT09AL00012</t>
-  </si>
-  <si>
-    <t>157.22</t>
-  </si>
-  <si>
-    <t>15/02</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ЦОД-2</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,8 +1370,8 @@
     <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="110" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3"/>
     <col min="9" max="9" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -1340,3830 +1394,4021 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L18" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L23" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L24" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L28" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L29" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H30" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L31" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H32" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L33" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L34" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L36" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>125</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="2">
-        <v>2021</v>
+        <v>10</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H40" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="2">
-        <v>2021</v>
+        <v>135</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="2">
-        <v>2021</v>
+        <v>39</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L43" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L44" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I46" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="L46" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H47" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="L48" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="L49" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="L51" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H52" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2"/>
       <c r="L52" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2">
-        <v>2021</v>
+      <c r="K53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J54" s="2">
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L54" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J55" s="2">
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="L55" s="2">
         <v>2021</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L56" s="2">
-        <v>2021</v>
+        <v>10</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L57" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L58" s="2">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H59" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H60" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2"/>
       <c r="L60" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F61" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L61" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L62" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L63" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L64" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I65" s="2"/>
       <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L65" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>233</v>
+        <v>203</v>
+      </c>
+      <c r="B66" s="2">
+        <v>13</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="H66" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L66" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I67" s="2"/>
       <c r="J67" s="2">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L67" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I68" s="2"/>
       <c r="J68" s="2">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L68" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L69" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L70" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L71" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L72" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L73" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I74" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L74" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I75" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="J75" s="2">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L75" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L76" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L77" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L78" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L79" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L80" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L81" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L82" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L83" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L84" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L85" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L86" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L87" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L88" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L89" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L90" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L91" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L92" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L93" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L94" s="2">
         <v>2020</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L95" s="2">
         <v>2020</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>294</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L96" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC2_Rack_1.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC2_Rack_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="326">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Кабель оптический 10G SFP+</t>
   </si>
   <si>
     <t>Учтено в коммутационном оборудовании</t>
@@ -418,9 +415,6 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>FiberTrade FT-SFP+SR-0,3-D</t>
-  </si>
-  <si>
     <t>enp175s0f0</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>Intel Corp FT-SFP+SR-0,3-D</t>
-  </si>
-  <si>
     <t>enp216s0f0</t>
   </si>
   <si>
@@ -980,6 +971,39 @@
   </si>
   <si>
     <t>юнит 38</t>
+  </si>
+  <si>
+    <t>материнская карта</t>
+  </si>
+  <si>
+    <t>FT-SFP+SR-0.3-D</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 3м</t>
+  </si>
+  <si>
+    <t>PM160-220/12</t>
+  </si>
+  <si>
+    <t>DDR4_RDIMM_64</t>
+  </si>
+  <si>
+    <t>E10G42BTDABLK</t>
+  </si>
+  <si>
+    <t>SSG-6029P-E1CR12L</t>
+  </si>
+  <si>
+    <t>SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>шасси</t>
   </si>
 </sst>
 </file>
@@ -1070,12 +1094,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1360,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1396,7 @@
     <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="110" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1444,7 +1471,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
@@ -1454,7 +1481,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -1485,7 +1512,9 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1521,14 +1550,16 @@
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>39</v>
@@ -1555,15 +1586,17 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1594,19 +1627,21 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>39</v>
@@ -1633,22 +1668,26 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -1670,22 +1709,26 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1693,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>40</v>
@@ -1707,22 +1750,26 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1730,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>40</v>
@@ -1744,22 +1791,26 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1767,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>40</v>
@@ -1781,22 +1832,26 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1804,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>40</v>
@@ -1818,22 +1873,26 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1900,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>40</v>
@@ -1855,29 +1914,29 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1900,15 +1959,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1939,19 +2000,21 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>39</v>
@@ -1978,15 +2041,17 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2017,19 +2082,21 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>39</v>
@@ -2056,29 +2123,29 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -2101,15 +2168,17 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2140,19 +2209,21 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="C20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>39</v>
@@ -2179,15 +2250,17 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2218,19 +2291,21 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>39</v>
@@ -2257,29 +2332,29 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2302,15 +2377,17 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2341,19 +2418,21 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>39</v>
@@ -2380,15 +2459,17 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2419,19 +2500,21 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="C27" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>39</v>
@@ -2458,29 +2541,29 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -2503,15 +2586,17 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2542,19 +2627,21 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>39</v>
@@ -2581,15 +2668,17 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2620,19 +2709,21 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="C32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>39</v>
@@ -2659,31 +2750,31 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -2706,15 +2797,17 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2745,19 +2838,21 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="C35" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>39</v>
@@ -2784,15 +2879,17 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2823,19 +2920,21 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="C37" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>39</v>
@@ -2862,17 +2961,19 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2880,7 +2981,7 @@
         <v>39</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -2889,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>40</v>
@@ -2903,15 +3004,17 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2919,7 +3022,7 @@
         <v>39</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -2928,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>40</v>
@@ -2942,32 +3045,34 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>40</v>
@@ -2981,15 +3086,17 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2997,7 +3104,7 @@
         <v>39</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -3006,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>40</v>
@@ -3020,32 +3127,34 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>40</v>
@@ -3059,29 +3168,29 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -3104,15 +3213,17 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3143,19 +3254,21 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>39</v>
@@ -3182,15 +3295,17 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3221,19 +3336,21 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>39</v>
@@ -3260,29 +3377,29 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -3305,15 +3422,17 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3344,19 +3463,21 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>39</v>
@@ -3383,15 +3504,17 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3422,19 +3545,21 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>39</v>
@@ -3461,17 +3586,19 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E53" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3479,7 +3606,7 @@
         <v>39</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -3488,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>40</v>
@@ -3502,15 +3629,17 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3527,7 +3656,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>40</v>
@@ -3541,15 +3670,17 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3580,17 +3711,19 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3598,7 +3731,7 @@
         <v>39</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -3607,7 +3740,7 @@
         <v>10</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>40</v>
@@ -3621,15 +3754,17 @@
     </row>
     <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3646,7 +3781,7 @@
         <v>13</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>40</v>
@@ -3660,15 +3795,17 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3685,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>40</v>
@@ -3699,25 +3836,27 @@
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3738,25 +3877,27 @@
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -3777,31 +3918,31 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -3824,15 +3965,17 @@
     </row>
     <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3863,15 +4006,17 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3902,24 +4047,28 @@
     </row>
     <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
@@ -3941,24 +4090,28 @@
     </row>
     <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="2"/>
+      <c r="I65" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
@@ -3980,31 +4133,31 @@
     </row>
     <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="2">
-        <v>13</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="H66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -4027,22 +4180,26 @@
     </row>
     <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="J67" s="2">
         <v>1</v>
       </c>
@@ -4064,22 +4221,26 @@
     </row>
     <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="2"/>
+      <c r="I68" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="J68" s="2">
         <v>1</v>
       </c>
@@ -4104,13 +4265,13 @@
         <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>51</v>
+        <v>211</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -4142,16 +4303,16 @@
     </row>
     <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>213</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4183,16 +4344,16 @@
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>51</v>
+        <v>215</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -4224,16 +4385,16 @@
     </row>
     <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>51</v>
+        <v>216</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -4265,16 +4426,16 @@
     </row>
     <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>51</v>
+        <v>217</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -4306,16 +4467,16 @@
     </row>
     <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>218</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -4347,16 +4508,16 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>51</v>
+        <v>219</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -4388,16 +4549,16 @@
     </row>
     <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>51</v>
+        <v>220</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4429,16 +4590,16 @@
     </row>
     <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>51</v>
+        <v>221</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4447,7 +4608,7 @@
         <v>39</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -4470,16 +4631,16 @@
     </row>
     <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -4488,7 +4649,7 @@
         <v>39</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -4511,16 +4672,16 @@
     </row>
     <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -4529,7 +4690,7 @@
         <v>39</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -4552,16 +4713,16 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>51</v>
+        <v>231</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -4570,7 +4731,7 @@
         <v>39</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -4593,16 +4754,16 @@
     </row>
     <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -4611,7 +4772,7 @@
         <v>39</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -4634,16 +4795,16 @@
     </row>
     <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -4652,7 +4813,7 @@
         <v>39</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -4675,16 +4836,16 @@
     </row>
     <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -4716,16 +4877,16 @@
     </row>
     <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>51</v>
+        <v>245</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -4757,16 +4918,16 @@
     </row>
     <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>51</v>
+        <v>247</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -4798,16 +4959,16 @@
     </row>
     <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>51</v>
+        <v>249</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -4839,16 +5000,16 @@
     </row>
     <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>51</v>
+        <v>251</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -4880,16 +5041,16 @@
     </row>
     <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>51</v>
+        <v>253</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -4921,16 +5082,16 @@
     </row>
     <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>51</v>
+        <v>255</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4962,16 +5123,16 @@
     </row>
     <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -5003,16 +5164,16 @@
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>51</v>
+        <v>259</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -5021,7 +5182,7 @@
         <v>39</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -5044,16 +5205,16 @@
     </row>
     <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>51</v>
+        <v>262</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -5062,7 +5223,7 @@
         <v>39</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -5085,16 +5246,16 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -5103,7 +5264,7 @@
         <v>39</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -5126,16 +5287,16 @@
     </row>
     <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -5144,7 +5305,7 @@
         <v>39</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
@@ -5167,16 +5328,16 @@
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -5185,7 +5346,7 @@
         <v>39</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -5208,16 +5369,16 @@
     </row>
     <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -5226,7 +5387,7 @@
         <v>39</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J96" s="2">
         <v>1</v>
@@ -5249,16 +5410,16 @@
     </row>
     <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -5267,7 +5428,7 @@
         <v>39</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
@@ -5290,16 +5451,16 @@
     </row>
     <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -5308,7 +5469,7 @@
         <v>39</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -5331,16 +5492,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>51</v>
+        <v>284</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -5349,7 +5510,7 @@
         <v>39</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -5372,16 +5533,16 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>51</v>
+        <v>287</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -5390,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
